--- a/statistiche/RandomForestCounterfactuals/MIA.xlsx
+++ b/statistiche/RandomForestCounterfactuals/MIA.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -657,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,38 +755,38 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -1190,22 +1190,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>1</v>
@@ -1324,22 +1324,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1385,25 +1385,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1495,13 +1495,13 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>1</v>
@@ -1592,22 +1592,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
@@ -1726,22 +1726,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1796,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -1903,13 +1903,13 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1927,25 +1927,25 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1967,13 +1967,13 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1982,34 +1982,34 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
